--- a/bioSample/bioSample_480.xlsx
+++ b/bioSample/bioSample_480.xlsx
@@ -28,7 +28,7 @@
     <t xml:space="preserve">harvester</t>
   </si>
   <si>
-    <t xml:space="preserve">bioSampleNumber </t>
+    <t xml:space="preserve">bioSampleNumber</t>
   </si>
   <si>
     <t xml:space="preserve">experimentDesign</t>

--- a/bioSample/bioSample_480.xlsx
+++ b/bioSample/bioSample_480.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hollybrown/database_files/bioSample/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C217E56F-FFCF-4C40-BF59-C47EF62F921E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0588526-7469-1446-B7EB-4535547B1826}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="16380" windowHeight="8200" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="4880" windowWidth="16380" windowHeight="8200" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="bioSample_480" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="22">
   <si>
     <t>harvestDate</t>
   </si>
@@ -85,6 +85,12 @@
   </si>
   <si>
     <t>TDY1145</t>
+  </si>
+  <si>
+    <t>marker_1</t>
+  </si>
+  <si>
+    <t>marker_2</t>
   </si>
 </sst>
 </file>
@@ -434,10 +440,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I13"/>
+  <dimension ref="A1:K13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11:E13"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J1" sqref="J1:K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -452,7 +458,7 @@
     <col min="10" max="1025" width="11.5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -480,8 +486,14 @@
       <c r="I1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -510,7 +522,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -539,7 +551,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -568,7 +580,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -597,7 +609,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -626,7 +638,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -655,7 +667,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -684,7 +696,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -713,7 +725,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -742,7 +754,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -771,7 +783,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
         <v>9</v>
       </c>
@@ -800,7 +812,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
         <v>9</v>
       </c>

--- a/bioSample/bioSample_480.xlsx
+++ b/bioSample/bioSample_480.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="18">
   <si>
     <t xml:space="preserve">harvestDate</t>
   </si>
@@ -88,6 +88,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -172,7 +173,7 @@
   <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="E6" activeCellId="0" sqref="E6:E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -180,8 +181,8 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.3"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="9.07"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="0" width="16.3"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="6.01"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="12.55"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="12.56"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="7" style="0" width="9.2"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="8.38"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="10" style="0" width="11.52"/>
@@ -345,9 +346,6 @@
       <c r="D6" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="0" t="s">
-        <v>12</v>
-      </c>
       <c r="F6" s="0" t="s">
         <v>16</v>
       </c>
@@ -374,9 +372,6 @@
       <c r="D7" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="0" t="s">
-        <v>12</v>
-      </c>
       <c r="F7" s="0" t="s">
         <v>16</v>
       </c>
@@ -403,9 +398,6 @@
       <c r="D8" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="E8" s="0" t="s">
-        <v>12</v>
-      </c>
       <c r="F8" s="0" t="s">
         <v>16</v>
       </c>
@@ -432,9 +424,6 @@
       <c r="D9" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="E9" s="0" t="s">
-        <v>12</v>
-      </c>
       <c r="F9" s="0" t="s">
         <v>16</v>
       </c>
@@ -461,9 +450,6 @@
       <c r="D10" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="E10" s="0" t="s">
-        <v>12</v>
-      </c>
       <c r="F10" s="0" t="s">
         <v>17</v>
       </c>
@@ -490,9 +476,6 @@
       <c r="D11" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="E11" s="0" t="s">
-        <v>12</v>
-      </c>
       <c r="F11" s="0" t="s">
         <v>17</v>
       </c>
@@ -519,9 +502,6 @@
       <c r="D12" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="E12" s="0" t="s">
-        <v>12</v>
-      </c>
       <c r="F12" s="0" t="s">
         <v>17</v>
       </c>
@@ -547,9 +527,6 @@
       </c>
       <c r="D13" s="0" t="s">
         <v>11</v>
-      </c>
-      <c r="E13" s="0" t="s">
-        <v>12</v>
       </c>
       <c r="F13" s="0" t="s">
         <v>17</v>

--- a/bioSample/bioSample_480.xlsx
+++ b/bioSample/bioSample_480.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hollybrown/database_files/bioSample/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABFDBCD5-14F6-F746-AE72-C0FFF4E3780F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A67970B9-DF0E-6344-912D-95C91D790302}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="18600" yWindow="460" windowWidth="33600" windowHeight="18940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="18940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -100,13 +100,13 @@
     <t>CNAG_04864</t>
   </si>
   <si>
-    <t>MEDIUM</t>
-  </si>
-  <si>
     <t>YPD</t>
   </si>
   <si>
     <t>DMEM</t>
+  </si>
+  <si>
+    <t>medium</t>
   </si>
 </sst>
 </file>
@@ -473,7 +473,7 @@
   <dimension ref="A1:M13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -501,7 +501,7 @@
         <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>7</v>
@@ -539,7 +539,7 @@
         <v>16</v>
       </c>
       <c r="H2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I2" t="s">
         <v>17</v>
@@ -571,7 +571,7 @@
         <v>16</v>
       </c>
       <c r="H3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I3" t="s">
         <v>18</v>
@@ -606,7 +606,7 @@
         <v>16</v>
       </c>
       <c r="H4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I4" t="s">
         <v>17</v>
@@ -638,7 +638,7 @@
         <v>16</v>
       </c>
       <c r="H5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I5" t="s">
         <v>18</v>
@@ -676,7 +676,7 @@
         <v>22</v>
       </c>
       <c r="H6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I6" t="s">
         <v>17</v>
@@ -714,7 +714,7 @@
         <v>22</v>
       </c>
       <c r="H7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I7" t="s">
         <v>18</v>
@@ -755,7 +755,7 @@
         <v>22</v>
       </c>
       <c r="H8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I8" t="s">
         <v>17</v>
@@ -793,7 +793,7 @@
         <v>22</v>
       </c>
       <c r="H9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I9" t="s">
         <v>18</v>
@@ -834,7 +834,7 @@
         <v>22</v>
       </c>
       <c r="H10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I10" t="s">
         <v>17</v>
@@ -872,7 +872,7 @@
         <v>22</v>
       </c>
       <c r="H11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I11" t="s">
         <v>18</v>
@@ -913,7 +913,7 @@
         <v>22</v>
       </c>
       <c r="H12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I12" t="s">
         <v>17</v>
@@ -951,7 +951,7 @@
         <v>22</v>
       </c>
       <c r="H13" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I13" t="s">
         <v>18</v>
